--- a/similarities/split_global/harmonic_similarity_timestamps_186.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_186.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'D:maj6']]</t>
+          <t>['A:min', 'C', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'G:min7']]</t>
+          <t>['C:min/D#', 'D#/G', 'C:min/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:05.029000', '0:01:09.357000')]</t>
+          <t>('0:00:16.840000', '0:00:26.811000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:26.480000', '0:00:37.859000')]</t>
+          <t>('0:01:04.280000', '0:01:07.880000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=65.029']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=16.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=26.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=64.28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min', 'Db'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:7', 'D#:min', 'G#:min/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'A#:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:21.980000'), ('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:25.260000', '0:00:34.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.780000', '0:01:09.140000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:02.352018', '0:00:08.679455')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=17.48', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=59.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:01:00.820000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:01:34.060000', '0:01:53.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.200000', '0:00:21.840000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.2']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:38.689000', '0:00:45.633000')]</t>
+          <t>('0:00:00.459543', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:12.420000', '0:01:15.580000')]</t>
+          <t>('0:00:10.540000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=72.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:59.100000', '0:01:09')]</t>
+          <t>('0:00:01.640000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.100000', '0:00:27.920000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=7.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:37.633000', '0:00:41.753000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D:7', 'G/5', 'G:min/5', 'D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'C:maj'], ['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:7', 'Bb', 'Bb:min', 'F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:08.680000', '0:00:11.240000'), ('0:00:09.280000', '0:00:11.960000')]</t>
+          <t>('0:01:23.505328', '0:01:37.704331')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.260000', '0:00:42.740000'), ('0:00:40.340000', '0:00:43.300000')]</t>
+          <t>('0:00:59.750000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=8.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=83.505328</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=39.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=59.75</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:26.220000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.967000', '0:00:18.318000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:12.241493')]</t>
+          <t>('0:00:08.359000', '0:00:13.688000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.200000', '0:00:22.820000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min', 'D:min/A', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:28.140000', '0:00:36.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_37</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj7', 'A:min7', 'D:min7', 'G:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab:maj7', 'F:min7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:32.970000', '0:00:41.300000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.490000', '0:00:28.190000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-37#t=32.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=20.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['C/b7', 'F', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G/3', 'C', 'C:min', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+          <t>('0:00:37.053000', '0:00:43.202000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:24.400531', '0:00:31.761256')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=37.053</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.400531</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
